--- a/Documentacion/PREGAME/1. ELICITACION/1.2 Cronograma/7185_5G_Cadena_Caicedo_Leiva_Cronograma_v2.1.xlsx
+++ b/Documentacion/PREGAME/1. ELICITACION/1.2 Cronograma/7185_5G_Cadena_Caicedo_Leiva_Cronograma_v2.1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_lei\Desktop\Analisis y diseño de software\7185_G5\Documentacion\PREGAME\1. ELICITACION\1.2 Cronograma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CADBEN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B2072C-56D6-4790-BA82-3606D771ADF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D1500D-326A-465B-8B9A-4863A9821679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -788,6 +788,76 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -808,77 +878,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1101,11 +1101,11 @@
   </sheetPr>
   <dimension ref="A2:Y69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63:F66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="28.109375" customWidth="1"/>
     <col min="3" max="3" width="22" style="5" customWidth="1"/>
@@ -1116,14 +1116,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="17.399999999999999">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="67"/>
     </row>
     <row r="3" spans="2:8" ht="14.4">
       <c r="B3" s="1"/>
@@ -1176,21 +1176,21 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="2:8" ht="13.2">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="54"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="2:8" ht="66">
       <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="C7" s="68" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -1211,7 +1211,7 @@
       <c r="B8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="45"/>
+      <c r="C8" s="69"/>
       <c r="D8" s="13" t="s">
         <v>15</v>
       </c>
@@ -1248,33 +1248,33 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="2:8" ht="13.2">
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="51"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="54"/>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="2:8" ht="52.8">
       <c r="B11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="68" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="70">
         <v>44515</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="70">
         <v>44517</v>
       </c>
-      <c r="G11" s="48" t="s">
+      <c r="G11" s="72" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="6"/>
@@ -1283,158 +1283,158 @@
       <c r="B12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="45"/>
+      <c r="C12" s="69"/>
       <c r="D12" s="13"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="2:8" ht="39.6">
       <c r="B13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="45"/>
+      <c r="C13" s="69"/>
       <c r="D13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="2:8" ht="66">
       <c r="B14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="45"/>
+      <c r="C14" s="69"/>
       <c r="D14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="2:8" ht="13.2">
       <c r="B15" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="45"/>
+      <c r="C15" s="69"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="2:8" ht="52.8">
       <c r="B16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="45"/>
+      <c r="C16" s="69"/>
       <c r="D16" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="2:8" ht="52.8">
       <c r="B17" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="45"/>
+      <c r="C17" s="69"/>
       <c r="D17" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="2:8" ht="52.8">
       <c r="B18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="45"/>
+      <c r="C18" s="69"/>
       <c r="D18" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="2:8" ht="52.8">
       <c r="B19" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="68" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="2:8" ht="39.6">
       <c r="B20" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="45"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="2:8" ht="39.6">
       <c r="B21" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="45"/>
+      <c r="C21" s="69"/>
       <c r="D21" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="2:8" ht="39.6">
       <c r="B22" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="45"/>
+      <c r="C22" s="69"/>
       <c r="D22" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="71"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="2:8" ht="13.2">
       <c r="B23" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="44" t="s">
+      <c r="C23" s="69"/>
+      <c r="D23" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="46">
+      <c r="E23" s="70">
         <v>44517</v>
       </c>
-      <c r="F23" s="52">
+      <c r="F23" s="60">
         <v>44552</v>
       </c>
-      <c r="G23" s="48" t="s">
+      <c r="G23" s="72" t="s">
         <v>41</v>
       </c>
       <c r="H23" s="6"/>
@@ -1443,44 +1443,44 @@
       <c r="B24" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="47"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="71"/>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="2:8" ht="13.2">
       <c r="B25" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="47"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="71"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="2:8" ht="13.2">
       <c r="B26" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="47"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="71"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="2:8" ht="13.2">
       <c r="B27" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="47"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="71"/>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="2:8" ht="39.6">
@@ -1496,8 +1496,8 @@
       <c r="E28" s="14">
         <v>44522</v>
       </c>
-      <c r="F28" s="54"/>
-      <c r="G28" s="47"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="71"/>
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="2:8" ht="39.6">
@@ -1513,10 +1513,10 @@
       <c r="E29" s="14">
         <v>44523</v>
       </c>
-      <c r="F29" s="52">
+      <c r="F29" s="60">
         <v>44524</v>
       </c>
-      <c r="G29" s="47"/>
+      <c r="G29" s="71"/>
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="2:8" ht="39.6">
@@ -1532,7 +1532,7 @@
       <c r="E30" s="14">
         <v>44524</v>
       </c>
-      <c r="F30" s="54"/>
+      <c r="F30" s="61"/>
       <c r="G30" s="15" t="s">
         <v>13</v>
       </c>
@@ -1602,14 +1602,14 @@
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:25" ht="13.2">
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="51"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="54"/>
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:25" s="26" customFormat="1" ht="132">
@@ -1746,7 +1746,7 @@
       <c r="E39" s="14">
         <v>44568</v>
       </c>
-      <c r="F39" s="52">
+      <c r="F39" s="60">
         <v>44571</v>
       </c>
       <c r="G39" s="28" t="s">
@@ -1784,7 +1784,7 @@
       <c r="E40" s="14">
         <v>44571</v>
       </c>
-      <c r="F40" s="54"/>
+      <c r="F40" s="61"/>
       <c r="G40" s="28" t="s">
         <v>10</v>
       </c>
@@ -1832,16 +1832,16 @@
       </c>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:25" s="58" customFormat="1" ht="13.2">
-      <c r="B43" s="59" t="s">
+    <row r="43" spans="1:25" s="41" customFormat="1" ht="13.2">
+      <c r="B43" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C43" s="60"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="63"/>
-      <c r="H43" s="64"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="45"/>
     </row>
     <row r="44" spans="1:25" ht="39.6">
       <c r="A44" s="2"/>
@@ -1854,13 +1854,13 @@
       <c r="D44" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E44" s="65">
+      <c r="E44" s="46">
         <v>44571</v>
       </c>
-      <c r="F44" s="65">
+      <c r="F44" s="46">
         <v>44572</v>
       </c>
-      <c r="G44" s="71" t="s">
+      <c r="G44" s="49" t="s">
         <v>116</v>
       </c>
       <c r="H44" s="7"/>
@@ -1889,12 +1889,12 @@
       <c r="C45" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D45" s="68" t="s">
+      <c r="D45" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="72"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="50"/>
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:25" ht="13.2">
@@ -1904,10 +1904,10 @@
       <c r="C46" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D46" s="69"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="72"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="50"/>
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:25" ht="26.4">
@@ -1917,10 +1917,10 @@
       <c r="C47" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="70"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="73"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="51"/>
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:25" ht="39.6">
@@ -1944,16 +1944,16 @@
       </c>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="2:8" s="58" customFormat="1" ht="13.2">
-      <c r="B49" s="59" t="s">
+    <row r="49" spans="2:8" s="41" customFormat="1" ht="13.2">
+      <c r="B49" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="C49" s="60"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="63"/>
-      <c r="H49" s="64"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="45"/>
     </row>
     <row r="50" spans="2:8" ht="13.2" customHeight="1">
       <c r="B50" s="12" t="s">
@@ -1962,16 +1962,16 @@
       <c r="C50" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D50" s="68" t="s">
+      <c r="D50" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="65">
+      <c r="E50" s="46">
         <v>44574</v>
       </c>
-      <c r="F50" s="65">
+      <c r="F50" s="46">
         <v>44579</v>
       </c>
-      <c r="G50" s="71" t="s">
+      <c r="G50" s="49" t="s">
         <v>65</v>
       </c>
       <c r="H50" s="6"/>
@@ -1983,10 +1983,10 @@
       <c r="C51" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D51" s="69"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="72"/>
+      <c r="D51" s="58"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="47"/>
+      <c r="G51" s="50"/>
       <c r="H51" s="6"/>
     </row>
     <row r="52" spans="2:8" ht="13.2">
@@ -1996,10 +1996,10 @@
       <c r="C52" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D52" s="69"/>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="72"/>
+      <c r="D52" s="58"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="50"/>
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="2:8" ht="26.4">
@@ -2009,10 +2009,10 @@
       <c r="C53" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="70"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="73"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="51"/>
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="2:8" ht="39.6">
@@ -2036,16 +2036,16 @@
       </c>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="2:8" s="58" customFormat="1" ht="13.2">
-      <c r="B55" s="59" t="s">
+    <row r="55" spans="2:8" s="41" customFormat="1" ht="13.2">
+      <c r="B55" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="60"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="63"/>
-      <c r="H55" s="64"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="45"/>
     </row>
     <row r="56" spans="2:8" ht="13.2" customHeight="1">
       <c r="B56" s="12" t="s">
@@ -2054,16 +2054,16 @@
       <c r="C56" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D56" s="68" t="s">
+      <c r="D56" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="E56" s="65">
+      <c r="E56" s="46">
         <v>44581</v>
       </c>
-      <c r="F56" s="65">
+      <c r="F56" s="46">
         <v>44586</v>
       </c>
-      <c r="G56" s="71" t="s">
+      <c r="G56" s="49" t="s">
         <v>65</v>
       </c>
       <c r="H56" s="6"/>
@@ -2075,10 +2075,10 @@
       <c r="C57" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D57" s="69"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="72"/>
+      <c r="D57" s="58"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="50"/>
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="2:8" ht="13.2">
@@ -2088,10 +2088,10 @@
       <c r="C58" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D58" s="69"/>
-      <c r="E58" s="66"/>
-      <c r="F58" s="66"/>
-      <c r="G58" s="72"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="47"/>
+      <c r="G58" s="50"/>
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="2:8" ht="13.2">
@@ -2101,10 +2101,10 @@
       <c r="C59" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="D59" s="69"/>
-      <c r="E59" s="66"/>
-      <c r="F59" s="66"/>
-      <c r="G59" s="72"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="50"/>
       <c r="H59" s="6"/>
     </row>
     <row r="60" spans="2:8" ht="26.4">
@@ -2114,10 +2114,10 @@
       <c r="C60" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="70"/>
-      <c r="E60" s="67"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="73"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="51"/>
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="2:8" ht="39.6">
@@ -2142,14 +2142,14 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="2:8" ht="13.2">
-      <c r="B62" s="49" t="s">
+      <c r="B62" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="C62" s="50"/>
-      <c r="D62" s="50"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="50"/>
-      <c r="G62" s="51"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="54"/>
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="2:8" ht="66">
@@ -2163,9 +2163,9 @@
         <v>77</v>
       </c>
       <c r="E63" s="14">
-        <v>44254</v>
-      </c>
-      <c r="F63" s="55">
+        <v>44223</v>
+      </c>
+      <c r="F63" s="62">
         <v>44611</v>
       </c>
       <c r="G63" s="15" t="s">
@@ -2186,13 +2186,13 @@
       <c r="E64" s="14">
         <v>44602</v>
       </c>
-      <c r="F64" s="56"/>
+      <c r="F64" s="63"/>
       <c r="G64" s="15" t="s">
         <v>65</v>
       </c>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="1:25" ht="52.8">
+    <row r="65" spans="1:25" ht="66">
       <c r="B65" s="13" t="s">
         <v>122</v>
       </c>
@@ -2205,7 +2205,7 @@
       <c r="E65" s="14">
         <v>44607</v>
       </c>
-      <c r="F65" s="56"/>
+      <c r="F65" s="63"/>
       <c r="G65" s="15" t="s">
         <v>65</v>
       </c>
@@ -2224,7 +2224,7 @@
       <c r="E66" s="14">
         <v>44609</v>
       </c>
-      <c r="F66" s="57"/>
+      <c r="F66" s="64"/>
       <c r="G66" s="15" t="s">
         <v>65</v>
       </c>
@@ -2330,26 +2330,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="E56:E60"/>
-    <mergeCell ref="F56:F60"/>
-    <mergeCell ref="G56:G60"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="G44:G47"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="F44:F47"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D56:D60"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C11:C18"/>
@@ -2363,6 +2343,26 @@
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="F23:F28"/>
     <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="E56:E60"/>
+    <mergeCell ref="F56:F60"/>
+    <mergeCell ref="G56:G60"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="F39:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Documentacion/PREGAME/1. ELICITACION/1.2 Cronograma/7185_5G_Cadena_Caicedo_Leiva_Cronograma_v2.1.xlsx
+++ b/Documentacion/PREGAME/1. ELICITACION/1.2 Cronograma/7185_5G_Cadena_Caicedo_Leiva_Cronograma_v2.1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CADBEN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_lei\Desktop\Analisis y diseño de software\7185_G5\Documentacion\PREGAME\1. ELICITACION\1.2 Cronograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D1500D-326A-465B-8B9A-4863A9821679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12EBA13-9A06-4F69-A094-43E73448D4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -801,63 +801,6 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -878,7 +821,64 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1101,11 +1101,11 @@
   </sheetPr>
   <dimension ref="A2:Y69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63:F66"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="28.109375" customWidth="1"/>
     <col min="3" max="3" width="22" style="5" customWidth="1"/>
@@ -1116,14 +1116,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="17.399999999999999">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="67"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="2:8" ht="14.4">
       <c r="B3" s="1"/>
@@ -1176,21 +1176,21 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="2:8" ht="13.2">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="56"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="2:8" ht="66">
       <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="49" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -1211,7 +1211,7 @@
       <c r="B8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="69"/>
+      <c r="C8" s="50"/>
       <c r="D8" s="13" t="s">
         <v>15</v>
       </c>
@@ -1248,33 +1248,33 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="2:8" ht="13.2">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="54"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="56"/>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="2:8" ht="52.8">
       <c r="B11" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="49" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="70">
+      <c r="E11" s="51">
         <v>44515</v>
       </c>
-      <c r="F11" s="70">
+      <c r="F11" s="51">
         <v>44517</v>
       </c>
-      <c r="G11" s="72" t="s">
+      <c r="G11" s="53" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="6"/>
@@ -1283,158 +1283,158 @@
       <c r="B12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="69"/>
+      <c r="C12" s="50"/>
       <c r="D12" s="13"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="2:8" ht="39.6">
       <c r="B13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="69"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="2:8" ht="66">
       <c r="B14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="69"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="2:8" ht="13.2">
       <c r="B15" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="69"/>
+      <c r="C15" s="50"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="2:8" ht="52.8">
       <c r="B16" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="69"/>
+      <c r="C16" s="50"/>
       <c r="D16" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="2:8" ht="52.8">
       <c r="B17" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="69"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="2:8" ht="52.8">
       <c r="B18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="69"/>
+      <c r="C18" s="50"/>
       <c r="D18" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="2:8" ht="52.8">
       <c r="B19" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="68" t="s">
+      <c r="C19" s="49" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="2:8" ht="39.6">
       <c r="B20" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="69"/>
+      <c r="C20" s="50"/>
       <c r="D20" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="2:8" ht="39.6">
       <c r="B21" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="69"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="2:8" ht="39.6">
       <c r="B22" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="69"/>
+      <c r="C22" s="50"/>
       <c r="D22" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="2:8" ht="13.2">
       <c r="B23" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="69"/>
-      <c r="D23" s="68" t="s">
+      <c r="C23" s="50"/>
+      <c r="D23" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="70">
+      <c r="E23" s="51">
         <v>44517</v>
       </c>
-      <c r="F23" s="60">
+      <c r="F23" s="57">
         <v>44552</v>
       </c>
-      <c r="G23" s="72" t="s">
+      <c r="G23" s="53" t="s">
         <v>41</v>
       </c>
       <c r="H23" s="6"/>
@@ -1443,44 +1443,44 @@
       <c r="B24" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="71"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="52"/>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="2:8" ht="13.2">
       <c r="B25" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="71"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="52"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="2:8" ht="13.2">
       <c r="B26" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="71"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="52"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="2:8" ht="13.2">
       <c r="B27" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="71"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="52"/>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="2:8" ht="39.6">
@@ -1496,8 +1496,8 @@
       <c r="E28" s="14">
         <v>44522</v>
       </c>
-      <c r="F28" s="61"/>
-      <c r="G28" s="71"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="52"/>
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="2:8" ht="39.6">
@@ -1513,10 +1513,10 @@
       <c r="E29" s="14">
         <v>44523</v>
       </c>
-      <c r="F29" s="60">
+      <c r="F29" s="57">
         <v>44524</v>
       </c>
-      <c r="G29" s="71"/>
+      <c r="G29" s="52"/>
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="2:8" ht="39.6">
@@ -1532,7 +1532,7 @@
       <c r="E30" s="14">
         <v>44524</v>
       </c>
-      <c r="F30" s="61"/>
+      <c r="F30" s="59"/>
       <c r="G30" s="15" t="s">
         <v>13</v>
       </c>
@@ -1602,14 +1602,14 @@
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:25" ht="13.2">
-      <c r="B34" s="52" t="s">
+      <c r="B34" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="54"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="56"/>
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:25" s="26" customFormat="1" ht="132">
@@ -1746,7 +1746,7 @@
       <c r="E39" s="14">
         <v>44568</v>
       </c>
-      <c r="F39" s="60">
+      <c r="F39" s="57">
         <v>44571</v>
       </c>
       <c r="G39" s="28" t="s">
@@ -1784,7 +1784,7 @@
       <c r="E40" s="14">
         <v>44571</v>
       </c>
-      <c r="F40" s="61"/>
+      <c r="F40" s="59"/>
       <c r="G40" s="28" t="s">
         <v>10</v>
       </c>
@@ -1833,10 +1833,10 @@
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:25" s="41" customFormat="1" ht="13.2">
-      <c r="B43" s="55" t="s">
+      <c r="B43" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="C43" s="56"/>
+      <c r="C43" s="64"/>
       <c r="D43" s="42"/>
       <c r="E43" s="42"/>
       <c r="F43" s="43"/>
@@ -1854,13 +1854,13 @@
       <c r="D44" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E44" s="46">
-        <v>44571</v>
-      </c>
-      <c r="F44" s="46">
-        <v>44572</v>
-      </c>
-      <c r="G44" s="49" t="s">
+      <c r="E44" s="68">
+        <v>44573</v>
+      </c>
+      <c r="F44" s="68">
+        <v>44580</v>
+      </c>
+      <c r="G44" s="71" t="s">
         <v>116</v>
       </c>
       <c r="H44" s="7"/>
@@ -1889,12 +1889,12 @@
       <c r="C45" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D45" s="57" t="s">
+      <c r="D45" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="50"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="72"/>
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:25" ht="13.2">
@@ -1904,10 +1904,10 @@
       <c r="C46" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D46" s="58"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-      <c r="G46" s="50"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="72"/>
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:25" ht="26.4">
@@ -1917,10 +1917,10 @@
       <c r="C47" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="59"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="51"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="73"/>
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:25" ht="39.6">
@@ -1934,10 +1934,10 @@
         <v>113</v>
       </c>
       <c r="E48" s="20">
-        <v>44573</v>
+        <v>44580</v>
       </c>
       <c r="F48" s="20">
-        <v>44573</v>
+        <v>44580</v>
       </c>
       <c r="G48" s="39" t="s">
         <v>65</v>
@@ -1945,10 +1945,10 @@
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="2:8" s="41" customFormat="1" ht="13.2">
-      <c r="B49" s="55" t="s">
+      <c r="B49" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="C49" s="56"/>
+      <c r="C49" s="64"/>
       <c r="D49" s="42"/>
       <c r="E49" s="42"/>
       <c r="F49" s="43"/>
@@ -1962,16 +1962,16 @@
       <c r="C50" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D50" s="57" t="s">
+      <c r="D50" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="46">
-        <v>44574</v>
-      </c>
-      <c r="F50" s="46">
-        <v>44579</v>
-      </c>
-      <c r="G50" s="49" t="s">
+      <c r="E50" s="68">
+        <v>44580</v>
+      </c>
+      <c r="F50" s="68">
+        <v>44587</v>
+      </c>
+      <c r="G50" s="71" t="s">
         <v>65</v>
       </c>
       <c r="H50" s="6"/>
@@ -1983,10 +1983,10 @@
       <c r="C51" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D51" s="58"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-      <c r="G51" s="50"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="72"/>
       <c r="H51" s="6"/>
     </row>
     <row r="52" spans="2:8" ht="13.2">
@@ -1996,10 +1996,10 @@
       <c r="C52" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D52" s="58"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-      <c r="G52" s="50"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="69"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="72"/>
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="2:8" ht="26.4">
@@ -2009,10 +2009,10 @@
       <c r="C53" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="59"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="51"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="70"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="73"/>
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="2:8" ht="39.6">
@@ -2026,10 +2026,10 @@
         <v>120</v>
       </c>
       <c r="E54" s="20">
-        <v>44580</v>
+        <v>44587</v>
       </c>
       <c r="F54" s="20">
-        <v>44580</v>
+        <v>44587</v>
       </c>
       <c r="G54" s="39" t="s">
         <v>65</v>
@@ -2037,10 +2037,10 @@
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="2:8" s="41" customFormat="1" ht="13.2">
-      <c r="B55" s="55" t="s">
+      <c r="B55" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="56"/>
+      <c r="C55" s="64"/>
       <c r="D55" s="42"/>
       <c r="E55" s="42"/>
       <c r="F55" s="43"/>
@@ -2054,16 +2054,16 @@
       <c r="C56" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D56" s="57" t="s">
+      <c r="D56" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="E56" s="46">
-        <v>44581</v>
-      </c>
-      <c r="F56" s="46">
-        <v>44586</v>
-      </c>
-      <c r="G56" s="49" t="s">
+      <c r="E56" s="68">
+        <v>44587</v>
+      </c>
+      <c r="F56" s="68">
+        <v>44594</v>
+      </c>
+      <c r="G56" s="71" t="s">
         <v>65</v>
       </c>
       <c r="H56" s="6"/>
@@ -2075,10 +2075,10 @@
       <c r="C57" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D57" s="58"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="50"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="72"/>
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="2:8" ht="13.2">
@@ -2088,10 +2088,10 @@
       <c r="C58" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D58" s="58"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="50"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="69"/>
+      <c r="F58" s="69"/>
+      <c r="G58" s="72"/>
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="2:8" ht="13.2">
@@ -2101,10 +2101,10 @@
       <c r="C59" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="D59" s="58"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="50"/>
+      <c r="D59" s="66"/>
+      <c r="E59" s="69"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="72"/>
       <c r="H59" s="6"/>
     </row>
     <row r="60" spans="2:8" ht="26.4">
@@ -2114,10 +2114,10 @@
       <c r="C60" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="59"/>
-      <c r="E60" s="48"/>
-      <c r="F60" s="48"/>
-      <c r="G60" s="51"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="70"/>
+      <c r="G60" s="73"/>
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="2:8" ht="39.6">
@@ -2131,10 +2131,10 @@
         <v>119</v>
       </c>
       <c r="E61" s="20">
-        <v>44587</v>
+        <v>44594</v>
       </c>
       <c r="F61" s="20">
-        <v>44587</v>
+        <v>44594</v>
       </c>
       <c r="G61" s="39" t="s">
         <v>65</v>
@@ -2142,14 +2142,14 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="2:8" ht="13.2">
-      <c r="B62" s="52" t="s">
+      <c r="B62" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="C62" s="53"/>
-      <c r="D62" s="53"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="54"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="56"/>
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="2:8" ht="66">
@@ -2163,9 +2163,9 @@
         <v>77</v>
       </c>
       <c r="E63" s="14">
-        <v>44223</v>
-      </c>
-      <c r="F63" s="62">
+        <v>44229</v>
+      </c>
+      <c r="F63" s="60">
         <v>44611</v>
       </c>
       <c r="G63" s="15" t="s">
@@ -2186,13 +2186,13 @@
       <c r="E64" s="14">
         <v>44602</v>
       </c>
-      <c r="F64" s="63"/>
+      <c r="F64" s="61"/>
       <c r="G64" s="15" t="s">
         <v>65</v>
       </c>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="1:25" ht="66">
+    <row r="65" spans="1:25" ht="52.8">
       <c r="B65" s="13" t="s">
         <v>122</v>
       </c>
@@ -2205,7 +2205,7 @@
       <c r="E65" s="14">
         <v>44607</v>
       </c>
-      <c r="F65" s="63"/>
+      <c r="F65" s="61"/>
       <c r="G65" s="15" t="s">
         <v>65</v>
       </c>
@@ -2224,7 +2224,7 @@
       <c r="E66" s="14">
         <v>44609</v>
       </c>
-      <c r="F66" s="64"/>
+      <c r="F66" s="62"/>
       <c r="G66" s="15" t="s">
         <v>65</v>
       </c>
@@ -2330,6 +2330,26 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D45:D47"/>
+    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="E56:E60"/>
+    <mergeCell ref="F56:F60"/>
+    <mergeCell ref="G56:G60"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C11:C18"/>
@@ -2343,26 +2363,6 @@
     <mergeCell ref="B6:G6"/>
     <mergeCell ref="F23:F28"/>
     <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D56:D60"/>
-    <mergeCell ref="E56:E60"/>
-    <mergeCell ref="F56:F60"/>
-    <mergeCell ref="G56:G60"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="G44:G47"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="F44:F47"/>
-    <mergeCell ref="F39:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
